--- a/target/test-classes/testdata/CucumberExcelTest.xlsx
+++ b/target/test-classes/testdata/CucumberExcelTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15320"/>
+    <workbookView windowWidth="28000" windowHeight="15960"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>FirstName</t>
   </si>
@@ -46,7 +46,7 @@
     <t>/Users/sakirsahin/Documents/testimage.jpeg</t>
   </si>
   <si>
-    <t>john1231</t>
+    <t>j2s111s2sw2</t>
   </si>
   <si>
     <t>Hum@nhrm123</t>
@@ -61,7 +61,7 @@
     <t>Toe</t>
   </si>
   <si>
-    <t>toe1231</t>
+    <t>sosb11s2s2</t>
   </si>
   <si>
     <t>Peter</t>
@@ -73,7 +73,7 @@
     <t>Poe</t>
   </si>
   <si>
-    <t>poe1231</t>
+    <t>p3s1112ss2</t>
   </si>
   <si>
     <t>Mary</t>
@@ -85,9 +85,6 @@
     <t>Jane</t>
   </si>
   <si>
-    <t>mjane1213</t>
-  </si>
-  <si>
     <t>Con</t>
   </si>
   <si>
@@ -97,7 +94,7 @@
     <t>Coe</t>
   </si>
   <si>
-    <t>coe1231</t>
+    <t>sosb112ss2</t>
   </si>
 </sst>
 </file>
@@ -105,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -135,32 +132,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,6 +148,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -181,10 +164,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,15 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,44 +203,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,19 +269,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,163 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +460,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,11 +498,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,191 +554,156 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,7 +1042,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1054,7 +1051,7 @@
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="39.5625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="14.0625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1152,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -1160,19 +1157,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>

--- a/target/test-classes/testdata/CucumberExcelTest.xlsx
+++ b/target/test-classes/testdata/CucumberExcelTest.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
